--- a/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_2/bcw_train_60_test_40_depth_2_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_2/bcw_train_60_test_40_depth_2_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.84375</v>
+        <v>0.9205298013245033</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9529411764705882</v>
+        <v>0.972027972027972</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8950276243093923</v>
+        <v>0.9455782312925171</v>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.948051948051948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8951048951048951</v>
+        <v>0.8588235294117647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9309090909090909</v>
+        <v>0.9012345679012346</v>
       </c>
       <c r="E3" t="n">
-        <v>143</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9298245614035088</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9067234848484849</v>
+        <v>0.9342908746882257</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9240230357877417</v>
+        <v>0.9154257507198683</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9129683576092416</v>
+        <v>0.9234063995968758</v>
       </c>
       <c r="E5" t="n">
         <v>228</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9227430555555555</v>
+        <v>0.9307902507623665</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9175322283609576</v>
+        <v>0.9290466023966442</v>
       </c>
       <c r="E6" t="n">
         <v>228</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_2/bcw_train_60_test_40_depth_2_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_2/bcw_train_60_test_40_depth_2_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9205298013245033</v>
+        <v>0.92</v>
       </c>
       <c r="C2" t="n">
-        <v>0.972027972027972</v>
+        <v>0.97</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9455782312925171</v>
+        <v>0.95</v>
       </c>
       <c r="E2" t="n">
         <v>143</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.948051948051948</v>
+        <v>0.95</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8588235294117647</v>
+        <v>0.86</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9012345679012346</v>
+        <v>0.9</v>
       </c>
       <c r="E3" t="n">
         <v>85</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9298245614035088</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9298245614035088</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.93</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9298245614035088</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9342908746882257</v>
+        <v>0.93</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9154257507198683</v>
+        <v>0.92</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9234063995968758</v>
+        <v>0.92</v>
       </c>
       <c r="E5" t="n">
         <v>228</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9307902507623665</v>
+        <v>0.93</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.93</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9290466023966442</v>
+        <v>0.93</v>
       </c>
       <c r="E6" t="n">
         <v>228</v>
